--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC6_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3395178758176217</v>
+        <v>0.3371369234366693</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3395178758176217, 'ngram_match_score': 0.18729527253962752, 'weighted_ngram_match_score': 0.2595899810830713, 'syntax_match_score': 0.5207100591715976, 'dataflow_match_score': 0.3904761904761905}</t>
+          <t>{'codebleu': 0.33713692343666934, 'ngram_match_score': 0.18729527253962752, 'weighted_ngram_match_score': 0.2595899810830713, 'syntax_match_score': 0.5207100591715976, 'dataflow_match_score': 0.38095238095238093}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
